--- a/경력계산기.xlsx
+++ b/경력계산기.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAA4135-E375-4F85-82E8-B93D4F5D9DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46FA3B4-FDD0-42B5-BF49-A97D3601D2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="2610" windowWidth="19620" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8790" yWindow="2520" windowWidth="29025" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개인경력" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="13">
   <si>
     <t>경력시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,52 +65,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엔와이텔</t>
+    <t>회사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이너인터랙티브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리것연구소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔개웹제작소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동하테크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나인이즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한결소프트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식약처
-(지능형 수입식품 통합시스템 SI구축 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정안전부  G-Cloud기반 하모니시스템 재구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KT&amp;G ITO 센터 HR 시스템 분석설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가교통정보센터 운영 유지관리 용역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사</t>
+    <t>회사명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +531,7 @@
   <dimension ref="B2:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -594,7 +553,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
@@ -611,25 +570,25 @@
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="10">
-        <v>39007</v>
+        <v>38645</v>
       </c>
       <c r="D3" s="10">
-        <v>39965</v>
+        <v>43617</v>
       </c>
       <c r="E3" s="9" t="str">
         <f>DATEDIF(C3,D3+1,"y")&amp;"년 "&amp; DATEDIF(C3,D3+1,"ym")&amp;"월 " &amp; DATEDIF(C3,D3+1,"md") &amp; "일"</f>
-        <v>2년 7월 16일</v>
+        <v>13년 7월 13일</v>
       </c>
       <c r="F3" s="6" t="str">
         <f>IF(E3="0년 0월 1일","",DATEDIF(C3,D3+1,"y")&amp;"년"&amp; DATEDIF(C3,D3+1,"ym")&amp;"월" &amp; DATEDIF(C3,D3+1,"md") &amp; "일")</f>
-        <v>2년7월16일</v>
+        <v>13년7월13일</v>
       </c>
       <c r="H3" s="6">
         <f>VALUE(IF(E3="0년 0월 1일",0,LEFT(F3,FIND("년",F3)-1)))</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -643,29 +602,23 @@
       </c>
       <c r="L3" s="6">
         <f>VALUE(IF(E3="0년 0월 1일",0,MID(F3,FIND("월",F3)+1,FIND("일",F3)-FIND("월",F3)-1)))</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10">
-        <v>40304</v>
-      </c>
-      <c r="D4" s="10">
-        <v>40456</v>
-      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="9" t="str">
         <f>DATEDIF(C4,D4+1,"y")&amp;"년 "&amp; DATEDIF(C4,D4+1,"ym")&amp;"월 " &amp; DATEDIF(C4,D4+1,"md") &amp; "일"</f>
-        <v>0년 5월 0일</v>
+        <v>0년 0월 1일</v>
       </c>
       <c r="F4" s="6" t="str">
         <f t="shared" ref="F4:F13" si="0">IF(E4="0년 0월 1일","",DATEDIF(C4,D4+1,"y")&amp;"년"&amp; DATEDIF(C4,D4+1,"ym")&amp;"월" &amp; DATEDIF(C4,D4+1,"md") &amp; "일")</f>
-        <v>0년5월0일</v>
+        <v/>
       </c>
       <c r="H4" s="6">
         <f t="shared" ref="H4:H12" si="1">VALUE(IF(E4="0년 0월 1일",0,LEFT(F4,FIND("년",F4)-1)))</f>
@@ -676,7 +629,7 @@
       </c>
       <c r="J4" s="6">
         <f t="shared" ref="J4:J12" si="2">VALUE(IF(E4="0년 0월 1일",0,MID(F4,FIND("년",F4)+1,FIND("월",F4)-FIND("년",F4)-1)))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>6</v>
@@ -690,22 +643,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10">
-        <v>40606</v>
-      </c>
-      <c r="D5" s="10">
-        <v>40821</v>
-      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="9" t="str">
         <f t="shared" ref="E5:E42" si="4">DATEDIF(C5,D5+1,"y")&amp;"년 "&amp; DATEDIF(C5,D5+1,"ym")&amp;"월 " &amp; DATEDIF(C5,D5+1,"md") &amp; "일"</f>
-        <v>0년 7월 2일</v>
+        <v>0년 0월 1일</v>
       </c>
       <c r="F5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0년7월2일</v>
+        <v/>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="1"/>
@@ -716,36 +663,30 @@
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10">
-        <v>40970</v>
-      </c>
-      <c r="D6" s="10">
-        <v>41205</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0년 7월 22일</v>
+        <v>0년 0월 1일</v>
       </c>
       <c r="F6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0년7월22일</v>
+        <v/>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
@@ -756,36 +697,30 @@
       </c>
       <c r="J6" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="10">
-        <v>41348</v>
-      </c>
-      <c r="D7" s="10">
-        <v>41698</v>
-      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0년 11월 14일</v>
+        <v>0년 0월 1일</v>
       </c>
       <c r="F7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0년11월14일</v>
+        <v/>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="1"/>
@@ -796,36 +731,30 @@
       </c>
       <c r="J7" s="6">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="10">
-        <v>42016</v>
-      </c>
-      <c r="D8" s="10">
-        <v>42156</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0년 4월 21일</v>
+        <v>0년 0월 1일</v>
       </c>
       <c r="F8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0년4월21일</v>
+        <v/>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
@@ -836,36 +765,30 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="10">
-        <v>42828</v>
-      </c>
-      <c r="D9" s="10">
-        <v>43031</v>
-      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0년 6월 21일</v>
+        <v>0년 0월 1일</v>
       </c>
       <c r="F9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0년6월21일</v>
+        <v/>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
@@ -876,36 +799,30 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10">
-        <v>43739</v>
-      </c>
-      <c r="D10" s="10">
-        <v>43830</v>
-      </c>
+    <row r="10" spans="2:13" ht="12" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0년 3월 0일</v>
+        <v>0년 0월 1일</v>
       </c>
       <c r="F10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0년3월0일</v>
+        <v/>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="1"/>
@@ -916,7 +833,7 @@
       </c>
       <c r="J10" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>3</v>
@@ -930,22 +847,16 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10">
-        <v>44084</v>
-      </c>
-      <c r="D11" s="10">
-        <v>44204</v>
-      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0년 3월 30일</v>
+        <v>0년 0월 1일</v>
       </c>
       <c r="F11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0년3월30일</v>
+        <v/>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
@@ -956,36 +867,30 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="10">
-        <v>44713</v>
-      </c>
-      <c r="D12" s="10">
-        <v>44799</v>
-      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0년 2월 26일</v>
+        <v>0년 0월 1일</v>
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0년2월26일</v>
+        <v/>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
@@ -996,63 +901,55 @@
       </c>
       <c r="J12" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44873</v>
-      </c>
-      <c r="D13" s="10">
-        <v>45322</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>1년 2월 24일</v>
+        <v>0년 0월 1일</v>
       </c>
       <c r="F13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>1년2월24일</v>
+        <v/>
       </c>
       <c r="H13" s="6">
         <f t="shared" ref="H13:H42" si="5">VALUE(IF(E13="0년 0월 1일",0,LEFT(F13,FIND("년",F13)-1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J42" si="6">VALUE(IF(E13="0년 0월 1일",0,MID(F13,FIND("년",F13)+1,FIND("월",F13)-FIND("년",F13)-1)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" ref="L13:L42" si="7">VALUE(IF(E13="0년 0월 1일",0,MID(F13,FIND("월",F13)+1,FIND("일",F13)-FIND("월",F13)-1)))</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9">
-        <v>12</v>
-      </c>
+      <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="9" t="str">
@@ -1082,9 +979,7 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9">
-        <v>13</v>
-      </c>
+      <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="9" t="str">
@@ -1114,9 +1009,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9">
-        <v>14</v>
-      </c>
+      <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="9" t="str">
@@ -1146,9 +1039,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9">
-        <v>15</v>
-      </c>
+      <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9" t="str">
@@ -1178,9 +1069,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
-        <v>16</v>
-      </c>
+      <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="9" t="str">
@@ -1210,9 +1099,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9">
-        <v>17</v>
-      </c>
+      <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="9" t="str">
@@ -1242,9 +1129,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9">
-        <v>18</v>
-      </c>
+      <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="9" t="str">
@@ -1274,9 +1159,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9">
-        <v>19</v>
-      </c>
+      <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="9" t="str">
@@ -1306,9 +1189,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="9">
-        <v>20</v>
-      </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="9" t="str">
@@ -1338,9 +1219,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9">
-        <v>21</v>
-      </c>
+      <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="9" t="str">
@@ -1370,9 +1249,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9">
-        <v>22</v>
-      </c>
+      <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="9" t="str">
@@ -1402,9 +1279,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9">
-        <v>23</v>
-      </c>
+      <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="9" t="str">
@@ -1434,9 +1309,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9">
-        <v>24</v>
-      </c>
+      <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="9" t="str">
@@ -1466,9 +1339,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9">
-        <v>25</v>
-      </c>
+      <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="9" t="str">
@@ -1498,9 +1369,7 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="9">
-        <v>26</v>
-      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="9" t="str">
@@ -1530,9 +1399,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="9">
-        <v>27</v>
-      </c>
+      <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="9" t="str">
@@ -1562,9 +1429,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="9">
-        <v>28</v>
-      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="9" t="str">
@@ -1594,9 +1459,7 @@
       </c>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="9">
-        <v>29</v>
-      </c>
+      <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="9" t="str">
@@ -1626,9 +1489,7 @@
       </c>
     </row>
     <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="9">
-        <v>30</v>
-      </c>
+      <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="9" t="str">
@@ -1658,9 +1519,7 @@
       </c>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="9">
-        <v>31</v>
-      </c>
+      <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="9" t="str">
@@ -1690,9 +1549,7 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="9">
-        <v>32</v>
-      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="9" t="str">
@@ -1722,9 +1579,7 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="9">
-        <v>33</v>
-      </c>
+      <c r="B35" s="9"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="9" t="str">
@@ -1754,9 +1609,7 @@
       </c>
     </row>
     <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="9">
-        <v>34</v>
-      </c>
+      <c r="B36" s="9"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="9" t="str">
@@ -1786,9 +1639,7 @@
       </c>
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="9">
-        <v>35</v>
-      </c>
+      <c r="B37" s="9"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="9" t="str">
@@ -1818,9 +1669,7 @@
       </c>
     </row>
     <row r="38" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="9">
-        <v>36</v>
-      </c>
+      <c r="B38" s="9"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="9" t="str">
@@ -1850,9 +1699,7 @@
       </c>
     </row>
     <row r="39" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="9">
-        <v>37</v>
-      </c>
+      <c r="B39" s="9"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="9" t="str">
@@ -1882,9 +1729,7 @@
       </c>
     </row>
     <row r="40" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="9">
-        <v>38</v>
-      </c>
+      <c r="B40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="9" t="str">
@@ -1914,9 +1759,7 @@
       </c>
     </row>
     <row r="41" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="9">
-        <v>39</v>
-      </c>
+      <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="9" t="str">
@@ -1946,9 +1789,7 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="9">
-        <v>40</v>
-      </c>
+      <c r="B42" s="9"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="9" t="str">
@@ -1992,21 +1833,21 @@
     <row r="44" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H44" s="6">
         <f>SUM(H3:H42)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J44" s="6">
         <f>SUM(J3:J42)</f>
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>3</v>
       </c>
       <c r="L44" s="6">
         <f>SUM(L3:L42)</f>
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="M44" s="11" t="s">
         <v>4</v>
@@ -2015,21 +1856,21 @@
     <row r="46" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H46" s="6">
         <f>H44+INT(J44/12)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J46" s="6">
         <f>MOD(J44,12)+INT(L44/30)</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K46" s="11" t="s">
         <v>3</v>
       </c>
       <c r="L46" s="6">
         <f>MOD(L44,30)</f>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M46" s="11" t="s">
         <v>4</v>
@@ -2038,21 +1879,21 @@
     <row r="48" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H48" s="14">
         <f>H46+INT(J46/12)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I48" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J48" s="14">
         <f>MOD(J46,12)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K48" s="14" t="s">
         <v>3</v>
       </c>
       <c r="L48" s="14">
         <f>L46</f>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M48" s="14" t="s">
         <v>4</v>
